--- a/pcmt-vaxprequal/StructureDefinition-PreQualDBwithIds.xlsx
+++ b/pcmt-vaxprequal/StructureDefinition-PreQualDBwithIds.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="114">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T08:33:29+00:00</t>
+    <t>2025-09-16T20:42:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,7 +96,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t>0</t>
@@ -248,9 +245,6 @@
   </si>
   <si>
     <t>Base</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>PreQualDBwithIds.dateOfPrequal</t>
@@ -677,7 +671,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -721,7 +715,6 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -833,9 +826,6 @@
       <c r="AJ1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AK1" t="s" s="1">
-        <v>72</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -850,22 +840,22 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>74</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -922,30 +912,27 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AH2" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AI2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -953,28 +940,28 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1025,30 +1012,27 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK3" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1056,10 +1040,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
@@ -1071,13 +1055,13 @@
         <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1128,30 +1112,27 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK4" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1159,10 +1140,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
@@ -1174,13 +1155,13 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1231,30 +1212,27 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK5" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1262,10 +1240,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1277,13 +1255,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1334,30 +1312,27 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK6" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1365,10 +1340,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -1380,13 +1355,13 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1437,30 +1412,27 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK7" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1468,10 +1440,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
@@ -1483,13 +1455,13 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1540,30 +1512,27 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK8" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1571,10 +1540,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -1586,13 +1555,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1643,30 +1612,27 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK9" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1674,10 +1640,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -1689,13 +1655,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1746,30 +1712,27 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1777,10 +1740,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -1792,13 +1755,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1849,30 +1812,27 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK11" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1880,10 +1840,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -1895,13 +1855,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1952,30 +1912,27 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK12" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -1983,10 +1940,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -1998,13 +1955,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2055,21 +2012,18 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK13" t="s" s="2">
         <v>20</v>
       </c>
     </row>
